--- a/test/fixtures/export-xlsx/Excel.xlsx
+++ b/test/fixtures/export-xlsx/Excel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>A</t>
   </si>
@@ -572,7 +572,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="14" style="1" customWidth="1"/>
@@ -885,7 +884,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="8" width="14" style="2" customWidth="1"/>
@@ -951,7 +949,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="7" width="14" style="3" customWidth="1"/>
